--- a/src/main/resources/assets/_test/docs/xlsx/___IF006.xlsx
+++ b/src/main/resources/assets/_test/docs/xlsx/___IF006.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_dev\_workspace\workspace-spring-tool-suite4\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\_dev\_workspace\sts4-workspace\pjt_hanwha_life_mvc\src\main\resources\assets\_test\docs\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12290"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="IF006" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,12 +640,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -893,7 +887,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -901,9 +895,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -1232,29 +1223,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A50" activeCellId="1" sqref="A48 A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.08203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.58203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.25" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1274,7 +1265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1288,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1311,7 +1302,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1319,12 +1310,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1335,7 +1326,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1349,7 +1340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1357,7 +1348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1371,7 +1362,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1385,7 +1376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -1435,7 +1426,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1449,7 +1440,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1487,8 +1478,8 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17" s="4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
         <v>2</v>
       </c>
       <c r="B17" t="s">
@@ -1525,7 +1516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1563,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1601,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -1639,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -1677,12 +1668,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>29</v>
       </c>
@@ -1735,7 +1726,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1740,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1</v>
       </c>
@@ -1787,7 +1778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2</v>
       </c>
@@ -1825,7 +1816,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1863,7 +1854,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1901,7 +1892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>5</v>
       </c>
@@ -1939,7 +1930,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>6</v>
       </c>
@@ -1977,7 +1968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>7</v>
       </c>
@@ -2015,7 +2006,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>8</v>
       </c>
@@ -2053,7 +2044,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -2091,7 +2082,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>10</v>
       </c>
@@ -2129,7 +2120,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>11</v>
       </c>
@@ -2167,7 +2158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>12</v>
       </c>
@@ -2205,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>13</v>
       </c>
@@ -2243,7 +2234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>14</v>
       </c>
@@ -2281,7 +2272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>15</v>
       </c>
@@ -2319,7 +2310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>16</v>
       </c>
@@ -2357,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>17</v>
       </c>
@@ -2395,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>18</v>
       </c>
@@ -2433,12 +2424,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -2452,7 +2443,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>91</v>
       </c>
